--- a/PurchaseOrder/File/Invoice.xlsx
+++ b/PurchaseOrder/File/Invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\InventorySystem\PurchaseOrder\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A2194-8080-463A-9D4D-752101C981A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA694AD-DA0A-4987-8F1A-417E8408A4A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,19 +191,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F.O.B.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T/T電匯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C &amp; F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Others其它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,6 +288,25 @@
     <t>suite#X7620, Hawthorne, CA 90250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.D.P.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +318,7 @@
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="Arial Narrow"/>
@@ -402,6 +413,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -738,326 +755,326 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1458,8 +1475,8 @@
   </sheetPr>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="75" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="12"/>
@@ -1493,54 +1510,54 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
       <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" customHeight="1">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
+      <c r="L3" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:22">
@@ -1548,449 +1565,449 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
+      <c r="L4" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
     </row>
     <row r="5" spans="1:22" ht="45.75" customHeight="1">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
       <c r="V5" s="16"/>
     </row>
     <row r="6" spans="1:22" ht="4.9000000000000004" customHeight="1">
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="73" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
     </row>
     <row r="8" spans="1:22" ht="24" customHeight="1">
-      <c r="B8" s="136"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="99"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
     </row>
     <row r="9" spans="1:22" ht="35.1" customHeight="1">
-      <c r="B9" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="80" t="s">
+      <c r="B9" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" customHeight="1">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="75" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1">
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
     </row>
     <row r="12" spans="1:22" ht="18" customHeight="1">
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1">
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1">
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1">
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
     </row>
     <row r="16" spans="1:22" ht="18" customHeight="1">
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
     </row>
     <row r="17" spans="2:21" ht="14.25" customHeight="1">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="73" t="s">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
     </row>
     <row r="18" spans="2:21" ht="16.5" customHeight="1">
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="75" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
     </row>
     <row r="19" spans="2:21" ht="24" customHeight="1">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="71" t="s">
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+    </row>
+    <row r="20" spans="2:21" ht="21.95" customHeight="1">
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+    </row>
+    <row r="21" spans="2:21" ht="17.25" customHeight="1">
+      <c r="B21" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-    </row>
-    <row r="20" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="71" t="s">
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+    </row>
+    <row r="22" spans="2:21" ht="16.5" customHeight="1">
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-    </row>
-    <row r="21" spans="2:21" ht="17.25" customHeight="1">
-      <c r="B21" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-    </row>
-    <row r="22" spans="2:21" ht="16.5" customHeight="1">
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
     </row>
     <row r="23" spans="2:21" ht="58.5" customHeight="1">
       <c r="B23" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="62" t="s">
+      <c r="F23" s="146"/>
+      <c r="G23" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="63"/>
+      <c r="H23" s="150"/>
       <c r="I23" s="24" t="s">
         <v>24</v>
       </c>
@@ -2000,20 +2017,20 @@
       <c r="K23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="95" t="s">
+      <c r="L23" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="95" t="s">
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
     </row>
     <row r="24" spans="2:21" s="25" customFormat="1" ht="49.7" customHeight="1">
       <c r="B24" s="36" t="s">
@@ -2025,12 +2042,12 @@
       <c r="D24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="64" t="s">
+      <c r="E24" s="147"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="152"/>
       <c r="I24" s="28" t="s">
         <v>33</v>
       </c>
@@ -2038,650 +2055,650 @@
         <v>34</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="86" t="s">
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
     </row>
     <row r="25" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B25" s="38"/>
       <c r="C25" s="39"/>
       <c r="D25" s="46"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
       <c r="I25" s="38"/>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
     </row>
     <row r="26" spans="2:21" s="14" customFormat="1" ht="18" customHeight="1">
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
       <c r="D26" s="47"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
       <c r="I26" s="38"/>
       <c r="J26" s="40"/>
       <c r="K26" s="40"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
     </row>
     <row r="27" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B27" s="38"/>
       <c r="C27" s="39"/>
       <c r="D27" s="47"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
       <c r="I27" s="38"/>
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
     </row>
     <row r="28" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="38"/>
       <c r="J28" s="40"/>
       <c r="K28" s="40"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
     </row>
     <row r="29" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B29" s="38"/>
       <c r="C29" s="39"/>
       <c r="D29" s="47"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
       <c r="I29" s="38"/>
       <c r="J29" s="40"/>
       <c r="K29" s="40"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
     </row>
     <row r="30" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B30" s="38"/>
       <c r="C30" s="39"/>
       <c r="D30" s="47"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="38"/>
       <c r="J30" s="40"/>
       <c r="K30" s="40"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
     </row>
     <row r="31" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B31" s="38"/>
       <c r="C31" s="39"/>
       <c r="D31" s="47"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
       <c r="I31" s="38"/>
       <c r="J31" s="40"/>
       <c r="K31" s="40"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
     </row>
     <row r="32" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B32" s="38"/>
       <c r="C32" s="39"/>
       <c r="D32" s="47"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="59"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="115"/>
       <c r="I32" s="38"/>
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
     </row>
     <row r="33" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
       <c r="D33" s="47"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="115"/>
       <c r="I33" s="38"/>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
     </row>
     <row r="34" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B34" s="38"/>
       <c r="C34" s="39"/>
       <c r="D34" s="47"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="38"/>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="121"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
     </row>
     <row r="35" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
       <c r="D35" s="47"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="59"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="115"/>
       <c r="I35" s="38"/>
       <c r="J35" s="40"/>
       <c r="K35" s="40"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="121"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
     </row>
     <row r="36" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B36" s="38"/>
       <c r="C36" s="39"/>
       <c r="D36" s="47"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="59"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="115"/>
       <c r="I36" s="38"/>
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="121"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
     </row>
     <row r="37" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B37" s="38"/>
       <c r="C37" s="39"/>
       <c r="D37" s="47"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="59"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="115"/>
       <c r="I37" s="38"/>
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="121"/>
-      <c r="T37" s="121"/>
-      <c r="U37" s="121"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
     </row>
     <row r="38" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B38" s="38"/>
       <c r="C38" s="39"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="59"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="115"/>
       <c r="I38" s="38"/>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="121"/>
-      <c r="S38" s="121"/>
-      <c r="T38" s="121"/>
-      <c r="U38" s="121"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
     </row>
     <row r="39" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B39" s="38"/>
       <c r="C39" s="39"/>
       <c r="D39" s="47"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="59"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="115"/>
       <c r="I39" s="38"/>
       <c r="J39" s="40"/>
       <c r="K39" s="40"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="121"/>
-      <c r="S39" s="121"/>
-      <c r="T39" s="121"/>
-      <c r="U39" s="121"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
     </row>
     <row r="40" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
       <c r="D40" s="47"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="59"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="115"/>
       <c r="I40" s="38"/>
       <c r="J40" s="40"/>
       <c r="K40" s="40"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="121"/>
-      <c r="S40" s="121"/>
-      <c r="T40" s="121"/>
-      <c r="U40" s="121"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
     </row>
     <row r="41" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B41" s="38"/>
       <c r="C41" s="39"/>
       <c r="D41" s="47"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="59"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="115"/>
       <c r="I41" s="38"/>
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="121"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="121"/>
-      <c r="U41" s="121"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
     </row>
     <row r="42" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
       <c r="D42" s="47"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="59"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="115"/>
       <c r="I42" s="38"/>
       <c r="J42" s="40"/>
       <c r="K42" s="40"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="121"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="121"/>
-      <c r="U42" s="121"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
     </row>
     <row r="43" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
       <c r="D43" s="47"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="59"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="115"/>
       <c r="I43" s="38"/>
       <c r="J43" s="40"/>
       <c r="K43" s="40"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
     </row>
     <row r="44" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B44" s="38"/>
       <c r="C44" s="39"/>
       <c r="D44" s="47"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="115"/>
       <c r="I44" s="38"/>
       <c r="J44" s="40"/>
       <c r="K44" s="40"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="121"/>
-      <c r="S44" s="121"/>
-      <c r="T44" s="121"/>
-      <c r="U44" s="121"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
     </row>
     <row r="45" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B45" s="38"/>
       <c r="C45" s="39"/>
       <c r="D45" s="47"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="59"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="115"/>
       <c r="I45" s="38"/>
       <c r="J45" s="40"/>
       <c r="K45" s="40"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="121"/>
-      <c r="S45" s="121"/>
-      <c r="T45" s="121"/>
-      <c r="U45" s="121"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
     </row>
     <row r="46" spans="2:21" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="B46" s="41"/>
       <c r="C46" s="31"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="57"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="144"/>
       <c r="I46" s="41"/>
       <c r="J46" s="42"/>
       <c r="K46" s="42"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="119"/>
-      <c r="T46" s="119"/>
-      <c r="U46" s="119"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="117"/>
+      <c r="T46" s="117"/>
+      <c r="U46" s="117"/>
     </row>
     <row r="47" spans="2:21" ht="54.95" customHeight="1">
       <c r="D47" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="128"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
       <c r="I47" s="12"/>
       <c r="K47" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L47" s="151" t="s">
+      <c r="L47" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="M47" s="155"/>
-      <c r="N47" s="155"/>
-      <c r="O47" s="155"/>
-      <c r="P47" s="156"/>
-      <c r="Q47" s="151" t="s">
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="R47" s="152"/>
-      <c r="S47" s="152"/>
-      <c r="T47" s="152"/>
-      <c r="U47" s="153"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="70"/>
     </row>
     <row r="48" spans="2:21" s="44" customFormat="1" ht="43.15" customHeight="1">
       <c r="D48" s="43"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
       <c r="H48" s="45"/>
       <c r="I48" s="45"/>
       <c r="J48" s="45"/>
       <c r="K48" s="49"/>
-      <c r="L48" s="148"/>
-      <c r="M48" s="149"/>
-      <c r="N48" s="149"/>
-      <c r="O48" s="149"/>
-      <c r="P48" s="150"/>
-      <c r="Q48" s="140"/>
-      <c r="R48" s="141"/>
-      <c r="S48" s="141"/>
-      <c r="T48" s="141"/>
-      <c r="U48" s="142"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="97"/>
+      <c r="S48" s="97"/>
+      <c r="T48" s="97"/>
+      <c r="U48" s="98"/>
     </row>
     <row r="49" spans="2:21" ht="15" customHeight="1">
-      <c r="L49" s="125" t="s">
+      <c r="L49" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="M49" s="126"/>
-      <c r="N49" s="126"/>
-      <c r="O49" s="126"/>
-      <c r="P49" s="127"/>
-      <c r="Q49" s="131" t="s">
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="R49" s="132"/>
-      <c r="S49" s="132"/>
-      <c r="T49" s="132"/>
-      <c r="U49" s="133"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="83"/>
     </row>
     <row r="50" spans="2:21" ht="15" customHeight="1">
-      <c r="L50" s="128" t="s">
+      <c r="L50" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="M50" s="129"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="129"/>
-      <c r="P50" s="130"/>
-      <c r="Q50" s="128" t="s">
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="R50" s="107"/>
-      <c r="S50" s="107"/>
-      <c r="T50" s="107"/>
-      <c r="U50" s="154"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="72"/>
     </row>
     <row r="51" spans="2:21" ht="15" customHeight="1">
       <c r="L51" s="32"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="123"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="67"/>
       <c r="P51" s="21" t="s">
         <v>43</v>
       </c>
       <c r="Q51" s="32"/>
-      <c r="R51" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="S51" s="123"/>
+      <c r="R51" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51" s="67"/>
       <c r="U51" s="21" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="15" customHeight="1">
       <c r="L52" s="32"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="123"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="67"/>
       <c r="P52" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="67"/>
+      <c r="U52" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="123"/>
-      <c r="U52" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:21" ht="15" customHeight="1">
       <c r="L53" s="32"/>
-      <c r="M53" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="N53" s="123"/>
+      <c r="M53" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="N53" s="67"/>
       <c r="P53" s="21" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="Q53" s="32"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="123"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="67"/>
       <c r="U53" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="2:21" ht="15" customHeight="1">
-      <c r="L54" s="128" t="s">
+      <c r="L54" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="129"/>
-      <c r="N54" s="129"/>
-      <c r="O54" s="129"/>
-      <c r="P54" s="130"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="65"/>
       <c r="Q54" s="32"/>
       <c r="U54" s="33"/>
     </row>
     <row r="55" spans="2:21" ht="15" customHeight="1">
-      <c r="L55" s="145" t="s">
-        <v>48</v>
-      </c>
-      <c r="M55" s="146"/>
-      <c r="N55" s="146"/>
-      <c r="O55" s="146"/>
-      <c r="P55" s="147"/>
+      <c r="L55" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="59"/>
       <c r="Q55" s="34"/>
       <c r="R55" s="17"/>
       <c r="S55" s="17"/>
@@ -2709,7 +2726,7 @@
     </row>
     <row r="57" spans="2:21" s="1" customFormat="1">
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2727,16 +2744,16 @@
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
       <c r="G58" s="3"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="143"/>
-      <c r="K58" s="143"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
       <c r="L58" s="7"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -2758,7 +2775,7 @@
         <v>6</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -2773,7 +2790,7 @@
     </row>
     <row r="60" spans="2:21" s="1" customFormat="1">
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2791,20 +2808,20 @@
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B61" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
+      <c r="B61" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="144"/>
-      <c r="K61" s="144"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
       <c r="L61" s="8"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -2817,14 +2834,14 @@
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" s="1" customFormat="1">
-      <c r="B62" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
+      <c r="B62" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -2841,14 +2858,14 @@
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B63" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
+      <c r="B63" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="113"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -2866,37 +2883,111 @@
     </row>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L55:P55"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="F16:T16"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="F14:T14"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="F13:T13"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F9:T9"/>
+    <mergeCell ref="I8:T8"/>
+    <mergeCell ref="F17:T17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F21:T21"/>
+    <mergeCell ref="F20:T20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="H5:T5"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="Q46:U46"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q40:U40"/>
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="L49:P49"/>
     <mergeCell ref="L50:P50"/>
@@ -2921,111 +3012,37 @@
     <mergeCell ref="Q48:U48"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F18:T18"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="H5:T5"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="Q46:U46"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q40:U40"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F21:T21"/>
-    <mergeCell ref="F20:T20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F16:T16"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="F14:T14"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="F10:T10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F9:T9"/>
-    <mergeCell ref="I8:T8"/>
-    <mergeCell ref="F17:T17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="L47:P47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
